--- a/resources/experiment 1/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Microalbuminuria (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9746179724153993</v>
+        <v>0.9809292892513893</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9746281824580323</v>
+        <v>0.9804085154786466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9746281824580323</v>
+        <v>0.9810845970807667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9759695012978304</v>
+        <v>0.9784095571646795</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9759695012978304</v>
+        <v>0.9778764950903678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9759695012978304</v>
+        <v>0.9778514259950706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.944509736442655</v>
+        <v>0.8349518389215028</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9444481758174141</v>
+        <v>0.846845853698444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9444481758174141</v>
+        <v>0.853764028572104</v>
       </c>
     </row>
   </sheetData>
